--- a/artfynd/A 59524-2025 artfynd.xlsx
+++ b/artfynd/A 59524-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY28"/>
+  <dimension ref="A1:AY29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3685,6 +3685,113 @@
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>131114362</v>
+      </c>
+      <c r="B29" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Lobergshöjden, Lobergshöjden, Vrm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>477396</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6591981</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Karlskoga</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Karlskoga</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Jim Hellquist</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Jim Hellquist</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
